--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,27 @@
   <si>
     <t>NQ.2.00.00002.180728</t>
   </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00001.180130</t>
+  </si>
+  <si>
+    <t>IP PORT mới 112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>Mở khóa chuyển trang,Nạp lại FW cho Thiết bị</t>
+  </si>
+  <si>
+    <t>Mở khóa chuyển trang cho TB</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -725,6 +746,30 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,35 +791,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1195,58 +1219,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1271,24 +1295,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1338,7 +1362,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1395,7 +1419,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="74"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1424,7 +1448,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="74"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1477,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="74"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1482,7 +1506,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="74"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1535,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="74"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1564,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1571,7 +1595,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="74"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1600,7 +1624,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="74"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1653,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="74"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1682,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="75"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2892,10 +2916,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2924,8 +2948,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2951,8 +2975,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4239,6 +4263,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4249,16 +4283,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4269,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,9 +4305,9 @@
     <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -4301,43 +4325,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4382,58 +4406,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4458,24 +4482,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4525,7 +4549,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4536,27 +4560,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
+      <c r="D7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="52">
+        <v>866104028885278</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>86</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="K7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="74"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4565,27 +4615,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="50" t="s">
+        <v>85</v>
+      </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="D8" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="90">
+        <v>866104028831694</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>86</v>
+      </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="L8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="74"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4614,7 +4688,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="74"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4643,7 +4717,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="74"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4672,7 +4746,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="74"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4701,7 +4775,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4732,7 +4806,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="74"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4761,7 +4835,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="74"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4864,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="74"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +4893,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="75"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4938,7 +5012,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,7 +5481,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5439,7 +5513,7 @@
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,7 +5545,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,12 +6127,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6085,8 +6159,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6112,8 +6186,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7399,6 +7473,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7409,16 +7493,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7428,7 +7502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7460,43 +7534,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7541,58 +7615,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7617,24 +7691,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7676,7 +7750,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7707,7 +7781,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="74"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7736,7 +7810,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="74"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7765,7 +7839,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="74"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7794,7 +7868,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="74"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7823,7 +7897,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="74"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7852,7 +7926,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7883,7 +7957,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="74"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7912,7 +7986,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="74"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7941,7 +8015,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="74"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7970,7 +8044,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="75"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9206,10 +9280,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9238,8 +9312,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9265,8 +9339,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10552,6 +10626,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10562,16 +10646,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10613,43 +10687,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10694,58 +10768,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10770,24 +10844,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10813,7 +10887,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10844,7 +10918,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="74"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10873,7 +10947,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="74"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10902,7 +10976,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="74"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10931,7 +11005,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="74"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10960,7 +11034,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="74"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10989,7 +11063,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="73" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11020,7 +11094,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="74"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11049,7 +11123,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="74"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11078,7 +11152,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="74"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11107,7 +11181,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="75"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12341,10 +12415,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12373,8 +12447,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12400,8 +12474,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13688,6 +13762,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13698,16 +13782,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHSX09\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -307,11 +307,35 @@
   <si>
     <t>Mở khóa chuyển trang cho TB</t>
   </si>
+  <si>
+    <t>NQ.1.00.00006.270416</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.115,16565</t>
+  </si>
+  <si>
+    <t>Mở khóa chuyển trang cho TB, nâng cấp FW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,6 +770,9 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,9 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1143,7 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
@@ -1138,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1219,58 +1243,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1295,24 +1319,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1362,7 +1386,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1419,7 +1443,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1428,27 +1452,53 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="B8" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C8" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="52">
+        <v>861694031740937</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>92</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="K8" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1457,27 +1507,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
+      <c r="B9" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C9" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="52">
+        <v>862631034711449</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1486,27 +1562,49 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C10" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="52">
+        <v>861694031760125</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>75</v>
+      </c>
       <c r="M10" s="53"/>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
+      <c r="O10" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R10" s="51"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1515,27 +1613,53 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="B11" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C11" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="73">
+        <v>861694031784026</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1564,7 +1688,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1595,7 +1719,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1748,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1777,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1806,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1925,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2821,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,10 +3040,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="85">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2948,8 +3072,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2975,8 +3099,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4293,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +4431,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="22" customWidth="1"/>
     <col min="8" max="8" width="48.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -4325,43 +4449,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4406,58 +4530,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4482,24 +4606,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4549,7 +4673,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4606,7 +4730,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4622,7 +4746,7 @@
       <c r="D8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="73">
         <v>866104028831694</v>
       </c>
       <c r="F8" s="65"/>
@@ -4659,7 +4783,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4668,27 +4792,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
+      <c r="B9" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C9" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="52">
+        <v>863586032809976</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="56"/>
+      <c r="O9" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4717,7 +4869,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +4898,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4775,7 +4927,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4806,7 +4958,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4835,7 +4987,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4864,7 +5016,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4893,7 +5045,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5012,7 +5164,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5481,7 +5633,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5545,7 +5697,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6127,12 +6279,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="85">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6159,8 +6311,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6186,8 +6338,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7534,43 +7686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7615,58 +7767,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7691,24 +7843,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7750,7 +7902,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7781,7 +7933,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7810,7 +7962,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7839,7 +7991,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7868,7 +8020,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7897,7 +8049,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7926,7 +8078,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7957,7 +8109,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7986,7 +8138,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8015,7 +8167,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8044,7 +8196,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9280,10 +9432,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="85">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9312,8 +9464,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9339,8 +9491,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10687,43 +10839,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10768,58 +10920,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10844,24 +10996,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10887,7 +11039,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10918,7 +11070,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10947,7 +11099,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10976,7 +11128,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11005,7 +11157,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11034,7 +11186,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11063,7 +11215,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11094,7 +11246,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11123,7 +11275,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11152,7 +11304,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11181,7 +11333,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12415,10 +12567,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="84" t="s">
+      <c r="V56" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="84">
+      <c r="W56" s="85">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12447,8 +12599,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="85"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12474,8 +12626,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -290,9 +290,6 @@
     <t>05/11/2020</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>125.212.203.114,16767</t>
   </si>
   <si>
@@ -330,6 +327,15 @@
   </si>
   <si>
     <t>Mở khóa chuyển trang cho TB, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,38 +770,8 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -818,10 +794,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1243,7 +1243,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="79" t="s">
@@ -1263,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="79"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="79" t="s">
@@ -1281,7 +1281,7 @@
       <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1326,13 +1326,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="79"/>
-      <c r="P5" s="88"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="79"/>
@@ -1348,10 +1348,10 @@
       <c r="C6" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="52">
         <v>862631034804210</v>
       </c>
       <c r="F6" s="65"/>
@@ -1386,7 +1386,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1403,10 +1403,10 @@
       <c r="C7" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="71">
         <v>861694030933277</v>
       </c>
       <c r="F7" s="65"/>
@@ -1443,7 +1443,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="C8" s="50">
         <v>44155</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="52">
@@ -1469,36 +1469,38 @@
         <v>66</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="53" t="s">
         <v>75</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="56"/>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1515,7 @@
       <c r="C9" s="50">
         <v>44155</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="52">
@@ -1524,36 +1526,38 @@
         <v>66</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="53" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="56"/>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1568,7 +1572,7 @@
       <c r="C10" s="50">
         <v>44155</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="52">
@@ -1580,31 +1584,35 @@
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="N10" s="55"/>
       <c r="O10" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="51"/>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="83"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1619,10 +1627,10 @@
       <c r="C11" s="50">
         <v>44155</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="71">
         <v>861694031784026</v>
       </c>
       <c r="F11" s="65"/>
@@ -1630,36 +1638,38 @@
         <v>66</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="53" t="s">
         <v>75</v>
       </c>
       <c r="M11" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N11" s="55"/>
       <c r="O11" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P11" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="51"/>
+      <c r="R11" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="83"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1698,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1719,7 +1729,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="83"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1748,7 +1758,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="83"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1787,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="83"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1816,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="84"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2394,7 +2404,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2468,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3040,10 +3050,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="85" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="85">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3072,8 +3082,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3099,8 +3109,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4387,6 +4397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4397,16 +4417,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4417,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,43 +4459,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4530,7 +4540,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="79" t="s">
@@ -4550,16 +4560,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="79"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="79" t="s">
@@ -4568,7 +4578,7 @@
       <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -4581,7 +4591,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4613,13 +4623,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="79"/>
-      <c r="P5" s="88"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="79"/>
@@ -4635,10 +4645,10 @@
       <c r="C6" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="52">
         <v>866104028750985</v>
       </c>
       <c r="F6" s="51"/>
@@ -4673,7 +4683,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4688,7 +4698,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="51" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="52">
@@ -4699,20 +4709,20 @@
         <v>66</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="56" t="s">
         <v>83</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
@@ -4730,7 +4740,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4739,14 +4749,14 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>85</v>
+      <c r="B8" s="50">
+        <v>44153</v>
       </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="71">
         <v>866104028831694</v>
       </c>
       <c r="F8" s="65"/>
@@ -4754,10 +4764,10 @@
         <v>66</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
@@ -4765,7 +4775,7 @@
         <v>83</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53" t="s">
@@ -4783,7 +4793,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4798,7 +4808,7 @@
       <c r="C9" s="50">
         <v>44155</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="51" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="52">
@@ -4809,27 +4819,27 @@
         <v>66</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="56" t="s">
         <v>83</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="53" t="s">
         <v>77</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
@@ -4840,7 +4850,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4869,7 +4879,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="83"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4898,7 +4908,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="83"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4927,7 +4937,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4958,7 +4968,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="83"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +4997,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="83"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5016,7 +5026,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="83"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5045,7 +5055,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="84"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6279,10 +6289,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="85" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="85">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>4</v>
       </c>
@@ -6311,8 +6321,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6338,8 +6348,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7625,6 +7635,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7635,18 +7655,9 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7654,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,43 +7697,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7767,7 +7778,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="79" t="s">
@@ -7787,16 +7798,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="79"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="79" t="s">
@@ -7805,7 +7816,7 @@
       <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -7818,7 +7829,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7850,13 +7861,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="79"/>
-      <c r="P5" s="88"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="79"/>
@@ -7872,10 +7883,10 @@
       <c r="C6" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>864811037206039</v>
       </c>
       <c r="F6" s="51" t="s">
@@ -7893,16 +7904,26 @@
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7933,7 +7954,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7962,7 +7983,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7991,7 +8012,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8020,7 +8041,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="83"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8049,7 +8070,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="83"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8078,7 +8099,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8109,7 +8130,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="83"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8138,7 +8159,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="83"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8167,7 +8188,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="83"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8196,7 +8217,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="84"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8347,7 +8368,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8626,7 +8647,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8850,7 +8871,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,7 +8989,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,10 +9453,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="85" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="85">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9464,8 +9485,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9491,8 +9512,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -9609,7 +9630,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10778,6 +10799,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10788,18 +10819,9 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10807,8 +10829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10839,43 +10861,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10920,7 +10942,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="79" t="s">
@@ -10940,16 +10962,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="79"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="79" t="s">
@@ -10958,7 +10980,7 @@
       <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -10971,7 +10993,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11003,13 +11025,13 @@
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="79"/>
-      <c r="P5" s="88"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
-      <c r="S5" s="90"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="79"/>
@@ -11019,27 +11041,51 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="52">
+        <v>862631034804210</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="60" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="82" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11050,27 +11096,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="71">
+        <v>861694030933277</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11079,27 +11151,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="B8" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C8" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="52">
+        <v>861694031740937</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="K8" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11108,27 +11208,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
+      <c r="B9" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C9" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="52">
+        <v>862631034711449</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="K9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11137,27 +11265,53 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C10" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="52">
+        <v>861694031760125</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="K10" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="83"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11166,27 +11320,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="B11" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C11" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="71">
+        <v>861694031784026</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="K11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="83"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11195,27 +11377,51 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="52">
+        <v>866104028750985</v>
+      </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
+      <c r="G12" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="60" t="s">
+        <v>81</v>
+      </c>
       <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="82" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11226,27 +11432,53 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="66"/>
+      <c r="D13" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="52">
+        <v>866104028885278</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
+      <c r="K13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="83"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11255,27 +11487,51 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="50">
+        <v>44153</v>
+      </c>
       <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="66"/>
+      <c r="D14" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="71">
+        <v>866104028831694</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
+      <c r="O14" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="83"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11284,27 +11540,55 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="66"/>
+      <c r="B15" s="50">
+        <v>44153</v>
+      </c>
+      <c r="C15" s="50">
+        <v>44155</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="52">
+        <v>863586032809976</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="K15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="83"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11313,27 +11597,53 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="56"/>
+      <c r="B16" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="71">
+        <v>864811037206039</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="53"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="84"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11452,7 +11762,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,7 +11794,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11761,7 +12071,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11921,7 +12231,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11953,7 +12263,7 @@
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11985,7 +12295,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12103,7 +12413,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12316,7 +12626,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12348,7 +12658,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,12 +12877,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="85" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="85">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12599,8 +12909,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12626,8 +12936,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -12744,7 +13054,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13914,6 +14224,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13924,16 +14244,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -773,6 +773,30 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,34 +818,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="A21:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1243,58 +1243,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1319,24 +1319,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1386,7 +1386,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1443,7 +1443,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1729,7 +1729,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3050,10 +3050,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="75" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="75">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3082,8 +3082,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3109,8 +3109,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4397,6 +4397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4407,16 +4417,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4427,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,43 +4459,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4540,58 +4540,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4616,24 +4616,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4683,7 +4683,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4697,7 +4697,9 @@
       <c r="B7" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="50">
+        <v>44155</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>70</v>
       </c>
@@ -4740,7 +4742,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4752,7 +4754,9 @@
       <c r="B8" s="50">
         <v>44153</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44155</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>70</v>
       </c>
@@ -4793,7 +4797,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4854,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4879,7 +4883,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4908,7 +4912,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4937,7 +4941,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4968,7 +4972,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4997,7 +5001,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5026,7 +5030,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5055,7 +5059,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6289,10 +6293,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="75" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="75">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>4</v>
       </c>
@@ -6321,8 +6325,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6348,8 +6352,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7635,6 +7639,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7645,16 +7659,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7697,43 +7701,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7778,58 +7782,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7854,24 +7858,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7923,7 +7927,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7954,7 +7958,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7983,7 +7987,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8012,7 +8016,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8041,7 +8045,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8070,7 +8074,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8099,7 +8103,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8130,7 +8134,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8159,7 +8163,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8188,7 +8192,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8217,7 +8221,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9453,10 +9457,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="75" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="75">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9485,8 +9489,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9512,8 +9516,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10799,6 +10803,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10809,16 +10823,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10829,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:S16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10861,43 +10865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10942,58 +10946,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -11018,24 +11022,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11085,7 +11089,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11142,7 +11146,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11199,7 +11203,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11256,7 +11260,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11311,7 +11315,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11368,7 +11372,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11421,7 +11425,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11478,7 +11482,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11531,7 +11535,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11588,7 +11592,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11643,7 +11647,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12877,10 +12881,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="75" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="75">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>4</v>
       </c>
@@ -12909,8 +12913,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12936,8 +12940,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14224,6 +14228,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14234,16 +14248,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
